--- a/data/public/recipe_class.xlsx
+++ b/data/public/recipe_class.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eakkanen\python\MIRA2\data\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EDEC94BC-6675-49F0-BC0D-E3A9AE4DC8BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42802E26-7710-4462-967A-7D6AE87B5478}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-17033" yWindow="-1837" windowWidth="19178" windowHeight="10199" xr2:uid="{69F87A02-1366-4FCF-8093-ECCFC868E3BA}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{69F87A02-1366-4FCF-8093-ECCFC868E3BA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1900" uniqueCount="1899">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1910" uniqueCount="1909">
   <si>
     <t>MT097</t>
   </si>
@@ -5733,16 +5733,52 @@
   </si>
   <si>
     <t>class</t>
+  </si>
+  <si>
+    <t>MT3122</t>
+  </si>
+  <si>
+    <t>RE0000780</t>
+  </si>
+  <si>
+    <t>RE0000781</t>
+  </si>
+  <si>
+    <t>RE0000783</t>
+  </si>
+  <si>
+    <t>RE0000784</t>
+  </si>
+  <si>
+    <t>RE0000787</t>
+  </si>
+  <si>
+    <t>RE0000788</t>
+  </si>
+  <si>
+    <t>RE0000789</t>
+  </si>
+  <si>
+    <t>RE0000790</t>
+  </si>
+  <si>
+    <t>F030423</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -6084,10 +6120,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9E338CD-59D5-4E29-899A-1400F4278A5B}">
-  <dimension ref="A1:B1899"/>
+  <dimension ref="A1:B1909"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A675" workbookViewId="0">
+      <selection activeCell="J685" sqref="J685"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -21288,7 +21324,88 @@
         <v>804</v>
       </c>
     </row>
+    <row r="1900" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1900" t="s">
+        <v>1899</v>
+      </c>
+      <c r="B1900">
+        <v>1802</v>
+      </c>
+    </row>
+    <row r="1901" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1901" t="s">
+        <v>1900</v>
+      </c>
+      <c r="B1901">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="1902" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1902" t="s">
+        <v>1901</v>
+      </c>
+      <c r="B1902">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="1903" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1903" t="s">
+        <v>1902</v>
+      </c>
+      <c r="B1903">
+        <v>1201</v>
+      </c>
+    </row>
+    <row r="1904" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1904" t="s">
+        <v>1903</v>
+      </c>
+      <c r="B1904">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="1905" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1905" t="s">
+        <v>1904</v>
+      </c>
+      <c r="B1905">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="1906" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1906" t="s">
+        <v>1905</v>
+      </c>
+      <c r="B1906">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="1907" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1907" t="s">
+        <v>1906</v>
+      </c>
+      <c r="B1907">
+        <v>2101</v>
+      </c>
+    </row>
+    <row r="1908" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1908" t="s">
+        <v>1907</v>
+      </c>
+      <c r="B1908">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="1909" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1909" t="s">
+        <v>1908</v>
+      </c>
+      <c r="B1909">
+        <v>1501</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>